--- a/Excel/__tables__.xlsx
+++ b/Excel/__tables__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETOfflineToolkit\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ETOfflineToolkit\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846C7D36-7EC0-4B94-9C7E-18FE7B5F19E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F72C2-4A3C-4A63-8F56-D90B21C0C921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
